--- a/medicine/Enfance/Petite_Poissone/Petite_Poissone.xlsx
+++ b/medicine/Enfance/Petite_Poissone/Petite_Poissone.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Petite Poissone, née en 1976[1],[2] à Rives[2],[3] près de Grenoble, est une illustratrice, artiste visuelle, street artiste, dessinatrice[4], poétesse, auteure de littérature jeunesse et collagiste de rue française qui réside à Grenoble[5].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Petite Poissone, née en 1976, à Rives, près de Grenoble, est une illustratrice, artiste visuelle, street artiste, dessinatrice, poétesse, auteure de littérature jeunesse et collagiste de rue française qui réside à Grenoble.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Diplôme national d'arts et techniques à l'École des Beaux arts de Caen[2],[3],[6]. Petite Poissone colle des dessins et des phrases poétiques dans les rues depuis 2011[1],[2].
-En 2020 elle s'engage auprès d'ATD Quart Monde et illustre l’histoire de Bernadette Cornuau J’ai cherché si c’était vrai. Bernadette Cornuau, une femme engagée[7],[8] publié par épisodes sur le site internet d’ATD Quart Monde pendant le confinement.
-En 2022 elle réalise une campagne de communication pour Grenoble-Alpes Métropole sur le thème des violences sexistes au travail[9],[10].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Diplôme national d'arts et techniques à l'École des Beaux arts de Caen. Petite Poissone colle des dessins et des phrases poétiques dans les rues depuis 2011,.
+En 2020 elle s'engage auprès d'ATD Quart Monde et illustre l’histoire de Bernadette Cornuau J’ai cherché si c’était vrai. Bernadette Cornuau, une femme engagée, publié par épisodes sur le site internet d’ATD Quart Monde pendant le confinement.
+En 2022 elle réalise une campagne de communication pour Grenoble-Alpes Métropole sur le thème des violences sexistes au travail,.
 </t>
         </is>
       </c>
@@ -544,13 +558,13 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Erratum: Petite Poissone (Auteur), Erratum, Petite Poissone  , 2021, 105 p. (ISBN 979-10-699-8344-1, présentation en ligne) (2021)
 Des vies partagées: Gabrielle Erpicum (Auteur), Ugo Couronneaud (Collaborateur), Thomas Piveteau (Collaborateur) et Petite Poissone (Illustrations), Des vies partagées, Éditions Quart monde , 2021, 105 p. (ISBN 979-10-91178-89-1, présentation en ligne) (2021)
-69 Universal Language: Collectif, 69 Universal Language, Critères éditions , coll. « Opus délits  », 2017, 96 p. (ISBN 2370260459, présentation en ligne) (2017)
-Vidéos
-Hold Up Ladies Part 1 Automne, animation pour le collectif Hold Up Ladies, filmé et monté par Antoine Dubois et BProduction, direction artistique Petite Poissone (Vidéo en ligne)</t>
+69 Universal Language: Collectif, 69 Universal Language, Critères éditions , coll. « Opus délits  », 2017, 96 p. (ISBN 2370260459, présentation en ligne) (2017)</t>
         </is>
       </c>
     </row>
@@ -575,45 +589,83 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Vidéos</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Hold Up Ladies Part 1 Automne, animation pour le collectif Hold Up Ladies, filmé et monté par Antoine Dubois et BProduction, direction artistique Petite Poissone (Vidéo en ligne)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Petite_Poissone</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Petite_Poissone</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Expositions, évènements et réalisations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>2023
-Urbaines - Street Art, Galerie d'art Le Comœdia à Brest, exposition collective (Mélanie Bourget, Caroline Derveaux, Julia Forma, Foufounart, Lady K, Stéphanie Kilgast, Lady M, Sêma Lao, Petite Poissone, Miss Tic)  (12 janvier - 1er avril 2023)[11]
-Festival Plein Champ, Le Mans (30 juin - 2 juillet 2023)[12]
+Urbaines - Street Art, Galerie d'art Le Comœdia à Brest, exposition collective (Mélanie Bourget, Caroline Derveaux, Julia Forma, Foufounart, Lady K, Stéphanie Kilgast, Lady M, Sêma Lao, Petite Poissone, Miss Tic)  (12 janvier - 1er avril 2023)
+Festival Plein Champ, Le Mans (30 juin - 2 juillet 2023)
 2022
 Expo des centcinquante, Le Chat Noir, Les Trois Baudets, Paris (1er décembre - 11 décembre 2022)
 Ancien Musée de Peinture, Grenoble (3 juin - 26 juin 2022)
-Street Art Fest Grenoble 2022, métropole grenobloise (27 mai - 26 juin 2022)[13]
+Street Art Fest Grenoble 2022, métropole grenobloise (27 mai - 26 juin 2022)
 Artistes en scène - Art urbain, exposition collective, collection de Yassine Hmitti, en partenariat avec l'Office Municipal de la Culture de Maisons-Alfort, Théâtre Debussy de Maisons-Alfort (19 juin - 6 juillet 2022)
 Exposition Petite Poissone, Levalet, Miss Tic et Pakone, Le Comœdia, Brest (28 avril - 23 juillet 2022) (Vidéo de présentation en ligne)
 2021
-Ensemble, exposition collective pour le Téléthon, Galerie Roussard, rue du Mont-Cenis à Paris (19 novembre - 12 décembre 2021)[14]
-Le MUR Paris (aout 2021)[15],[16]
-Festival Colors, Paris (20 mai - 30 juin 2021)[17]
-Dans le cadre du Street Art Fest Grenoble, métropole grenobloise, La Vie comme un Poème..., fresque à Saint-Martin-d'Hères (mai 2021)[18]
-Parlez-moi d'amour allez hop hop hop, fresque, Le MUR &amp; RATP, gare d'Auber, Paris (avril 2021)[19]
-Petite Poissone, exposition solo, Le Lavo//Matik, Paris (27 mars - 17 avril 2021)[20]
-Création poétique in situ de Petite Poissone, Médiathèque La Tannerie, Sillé-le-Guillaume (28 février 2021)[21]
-Les inégalités, ça n’est pas notre genre, Ancien Musée de Peinture, Grenoble (été 2021)[22]
+Ensemble, exposition collective pour le Téléthon, Galerie Roussard, rue du Mont-Cenis à Paris (19 novembre - 12 décembre 2021)
+Le MUR Paris (aout 2021),
+Festival Colors, Paris (20 mai - 30 juin 2021)
+Dans le cadre du Street Art Fest Grenoble, métropole grenobloise, La Vie comme un Poème..., fresque à Saint-Martin-d'Hères (mai 2021)
+Parlez-moi d'amour allez hop hop hop, fresque, Le MUR &amp; RATP, gare d'Auber, Paris (avril 2021)
+Petite Poissone, exposition solo, Le Lavo//Matik, Paris (27 mars - 17 avril 2021)
+Création poétique in situ de Petite Poissone, Médiathèque La Tannerie, Sillé-le-Guillaume (28 février 2021)
+Les inégalités, ça n’est pas notre genre, Ancien Musée de Peinture, Grenoble (été 2021)
 2020
-Festival Muralis de Dax, fresques, Dax (septembre 2020)[23]
-Street Art Fest Grenoble 2020, métropole grenobloise (2020)[24]
+Festival Muralis de Dax, fresques, Dax (septembre 2020)
+Street Art Fest Grenoble 2020, métropole grenobloise (2020)
 2019
-La chute des murs, en résonance avec le 30e anniversaire de la chute du mur de Berlin, Centre d'histoire de la résistance et de la déportation (CHRD), Lyon (8 novembre 2019 - janvier 2020)[25],[26] (Vidéo de présentation  en ligne)
-Free Hug, Spacejunk Grenoble (7 juin - 27 juillet 2019)[27]
-Femme, Homme, mode d'emploi, exposition en duo avec Don Mateo, Le cabinet d'amateur, Paris (mars 2019)[28]
-Free Hug, Spacejunk Bayonne (25 janvier - 15 mars 2019)[29]
+La chute des murs, en résonance avec le 30e anniversaire de la chute du mur de Berlin, Centre d'histoire de la résistance et de la déportation (CHRD), Lyon (8 novembre 2019 - janvier 2020), (Vidéo de présentation  en ligne)
+Free Hug, Spacejunk Grenoble (7 juin - 27 juillet 2019)
+Femme, Homme, mode d'emploi, exposition en duo avec Don Mateo, Le cabinet d'amateur, Paris (mars 2019)
+Free Hug, Spacejunk Bayonne (25 janvier - 15 mars 2019)
 2018
 Festival Points de vue à Bayonne (17 octobre - 21 octobre 2018) (Vidéo de présentation en ligne)
 2017
-Tout(es) en finesse, Galerie NUNC!, rue d'Arras à Paris (octobre 2017)[30],[5]
-Nous n’irons plus jamais, exposition solo, ateliers de MétalStar à Crolles (octobre 2017)[5]
-Irrévérence, premiers textes féministes, Ancien Musée de Peinture, Grenoble (2017)[2],[3]
+Tout(es) en finesse, Galerie NUNC!, rue d'Arras à Paris (octobre 2017),
+Nous n’irons plus jamais, exposition solo, ateliers de MétalStar à Crolles (octobre 2017)
+Irrévérence, premiers textes féministes, Ancien Musée de Peinture, Grenoble (2017),
 2014
-Exposition au café des arts, Grenoble (17 mai - 17 juin 2014)[31]</t>
+Exposition au café des arts, Grenoble (17 mai - 17 juin 2014)</t>
         </is>
       </c>
     </row>
